--- a/ntd/cover_sheet_template.xlsx
+++ b/ntd/cover_sheet_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://caltrans-my.sharepoint.com/personal/christian_suyat_dot_ca_gov/Documents/HomeDirectory/2023-08-04_Division of Data and Digital Services/2023-12-12_897_bus_procurement_cost_and_award/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{749355A0-8D2F-4F2F-8F27-41070AD47DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B8E1388-A26C-4FB5-99A7-2CBD890FBA2F}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="8_{749355A0-8D2F-4F2F-8F27-41070AD47DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B47B57B7-4307-4F12-BE1F-86BF084516C7}"/>
   <bookViews>
-    <workbookView xWindow="28710" yWindow="165" windowWidth="14565" windowHeight="11265" xr2:uid="{E7B44C33-9732-4AC6-B6B9-D7189BBEABAD}"/>
+    <workbookView xWindow="28950" yWindow="2520" windowWidth="14790" windowHeight="11325" xr2:uid="{E7B44C33-9732-4AC6-B6B9-D7189BBEABAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="102">
   <si>
     <t>NTD Monthly Ridership by RTPA</t>
   </si>
@@ -47,69 +47,12 @@
     <t>This report shows general ridership trends by transit agency, mode, and type of service. Reported unlinked passenger trips are reported, as well as the change from the prior year. For example, July 2023’s change would be the change in July 2023’s reported values against July 2022’s reported values.</t>
   </si>
   <si>
-    <t xml:space="preserve">    CB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    CR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    DR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    FB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    MB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    RB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    SR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    VP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    YR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    DO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    PT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TX</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Purchased Transportation - Taxi</t>
   </si>
   <si>
     <t>NTD Modes</t>
   </si>
   <si>
-    <t>NTD Types of Service (TOS)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Commuter Bus</t>
   </si>
   <si>
@@ -164,87 +107,12 @@
     <t>Data Dictionary</t>
   </si>
   <si>
-    <t>uza_name</t>
-  </si>
-  <si>
-    <t>uace_cd</t>
-  </si>
-  <si>
-    <t>_dt</t>
-  </si>
-  <si>
-    <t>ntd_id</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>reporter_type</t>
-  </si>
-  <si>
-    <t>agency</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
-    <t>mode</t>
-  </si>
-  <si>
-    <t>mode_full_name</t>
-  </si>
-  <si>
-    <t>service_type</t>
-  </si>
-  <si>
-    <t>_3_mode</t>
-  </si>
-  <si>
-    <t>tos</t>
-  </si>
-  <si>
-    <t>legacy_ntd_id</t>
-  </si>
-  <si>
-    <t>period_year_month</t>
-  </si>
-  <si>
-    <t>period_year</t>
-  </si>
-  <si>
-    <t>period_month</t>
-  </si>
-  <si>
-    <t>upt</t>
-  </si>
-  <si>
-    <t>vrm</t>
-  </si>
-  <si>
-    <t>vrh</t>
-  </si>
-  <si>
-    <t>voms</t>
-  </si>
-  <si>
     <t>RTPA</t>
   </si>
   <si>
-    <t>previous_y_m_upt</t>
-  </si>
-  <si>
-    <t>change_1yr</t>
-  </si>
-  <si>
-    <t>pct_change_1yr</t>
-  </si>
-  <si>
-    <t>Mode_full</t>
-  </si>
-  <si>
-    <t>TOS_full</t>
-  </si>
-  <si>
     <t>Unlined Passenger Trips</t>
   </si>
   <si>
@@ -254,18 +122,12 @@
     <t>Vehicle Revenue Hours</t>
   </si>
   <si>
-    <t>Vehicles Operating at Maximum Service</t>
-  </si>
-  <si>
     <t>Urbanized Area</t>
   </si>
   <si>
     <t>Name of Agency</t>
   </si>
   <si>
-    <t xml:space="preserve"> Urban Area Census Code</t>
-  </si>
-  <si>
     <t>The Transit Property’s NTD identification number in the Next Generation NTD Database</t>
   </si>
   <si>
@@ -275,9 +137,6 @@
     <t>Indicates the means of conveyance used for the service. The NTD recognizes a number of different modes including Motorbus (MB), Heavy Rail (HR), Light Rail (LR), and Demand Response (DR), among others.</t>
   </si>
   <si>
-    <t>Indicates whether the service is directly operated by the transit property, or is operated by a third party through a purchased transportation agreement.</t>
-  </si>
-  <si>
     <t>A grouping of modes based upon whether the mode operates on rail, is a bus mode, is ferry boat service or other.</t>
   </si>
   <si>
@@ -305,14 +164,191 @@
     <t>Description</t>
   </si>
   <si>
-    <t>description</t>
+    <t>The year this data was added to the mart</t>
+  </si>
+  <si>
+    <t>Indicates the agency's reporter type (Building Reporter, Full Reporter, Reduced Asset Reporter, Rural Reporter, Separate Service Reporter or Small System Waiver Reporter)</t>
+  </si>
+  <si>
+    <t>Reporter Type</t>
+  </si>
+  <si>
+    <t>A summarization of modes into Fixed Route and Demand Response</t>
+  </si>
+  <si>
+    <t> The Transit Property’s NTD identification number in the Legacy NTD Database</t>
+  </si>
+  <si>
+    <t>Year and month of when data was recorded</t>
+  </si>
+  <si>
+    <t>Year when data was recorded</t>
+  </si>
+  <si>
+    <t>Month when data was recorded</t>
+  </si>
+  <si>
+    <t>Type of Service: Indicates whether the service is directly operated by the transit property, or is operated by a third party through a purchased transportation agreement.</t>
+  </si>
+  <si>
+    <t>Vehicles Operated in Annual Maximum Service</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>RB</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>VP</t>
+  </si>
+  <si>
+    <t>YR</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>NTD Type of Service (TOS)</t>
+  </si>
+  <si>
+    <t>RTPA Ridership Data</t>
+  </si>
+  <si>
+    <t>The processed data used to populate the Monthly NTD Ridership Portfolio charts and graphs for reach RTPA</t>
+  </si>
+  <si>
+    <t>Workbook Tabs</t>
+  </si>
+  <si>
+    <t>Column Names</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Uza Name</t>
+  </si>
+  <si>
+    <t>UACE Code</t>
+  </si>
+  <si>
+    <t>NTD ID</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Agency</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Mode Full Name</t>
+  </si>
+  <si>
+    <t>Service Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3 Mode</t>
+  </si>
+  <si>
+    <t>Type of Service</t>
+  </si>
+  <si>
+    <t>Legacy NTD ID</t>
+  </si>
+  <si>
+    <t>Period Year Month</t>
+  </si>
+  <si>
+    <t>Period Year</t>
+  </si>
+  <si>
+    <t>Period Month</t>
+  </si>
+  <si>
+    <t>UPT</t>
+  </si>
+  <si>
+    <t>VRM</t>
+  </si>
+  <si>
+    <t>VRH</t>
+  </si>
+  <si>
+    <t>VOMS</t>
+  </si>
+  <si>
+    <t>Previous Year/Month UPT</t>
+  </si>
+  <si>
+    <t>Change in 1 Year UPT</t>
+  </si>
+  <si>
+    <t>Percent Change in 1 Year UPT</t>
+  </si>
+  <si>
+    <t>Mode Full</t>
+  </si>
+  <si>
+    <t>Type of Service Full Name</t>
+  </si>
+  <si>
+    <t>Urban Area Census Code</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Dt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,9 +365,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -343,7 +391,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -351,26 +399,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,405 +753,472 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A63280-4CAE-42D6-B3D9-7BBD49D66E76}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>89</v>
+      <c r="B1" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>87</v>
+      <c r="A2" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B10" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B48" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B50" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B51" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B52" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B53" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B54" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B55" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B56" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B57" t="s">
-        <v>83</v>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/ntd/cover_sheet_template.xlsx
+++ b/ntd/cover_sheet_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://caltrans-my.sharepoint.com/personal/christian_suyat_dot_ca_gov/Documents/HomeDirectory/2023-08-04_Division of Data and Digital Services/2023-12-12_897_bus_procurement_cost_and_award/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s145252\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="8_{749355A0-8D2F-4F2F-8F27-41070AD47DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B47B57B7-4307-4F12-BE1F-86BF084516C7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5257C666-F6B3-4BFF-BE36-E791CBBEDE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28950" yWindow="2520" windowWidth="14790" windowHeight="11325" xr2:uid="{E7B44C33-9732-4AC6-B6B9-D7189BBEABAD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E7B44C33-9732-4AC6-B6B9-D7189BBEABAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="102">
-  <si>
-    <t>NTD Monthly Ridership by RTPA</t>
-  </si>
-  <si>
-    <t>Provide CalSTA with NTD Monthly Ridership by each regional transportation planning authority (RTPA).</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="108">
   <si>
     <t>This report shows general ridership trends by transit agency, mode, and type of service. Reported unlinked passenger trips are reported, as well as the change from the prior year. For example, July 2023’s change would be the change in July 2023’s reported values against July 2022’s reported values.</t>
   </si>
@@ -50,9 +44,6 @@
     <t xml:space="preserve"> Purchased Transportation - Taxi</t>
   </si>
   <si>
-    <t>NTD Modes</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Commuter Bus</t>
   </si>
   <si>
@@ -104,9 +95,6 @@
     <t xml:space="preserve"> Purchased Transportation - Transportation Network Company</t>
   </si>
   <si>
-    <t>Data Dictionary</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -248,21 +236,9 @@
     <t>TX</t>
   </si>
   <si>
-    <t>NTD Type of Service (TOS)</t>
-  </si>
-  <si>
     <t>RTPA Ridership Data</t>
   </si>
   <si>
-    <t>The processed data used to populate the Monthly NTD Ridership Portfolio charts and graphs for reach RTPA</t>
-  </si>
-  <si>
-    <t>Workbook Tabs</t>
-  </si>
-  <si>
-    <t>Column Names</t>
-  </si>
-  <si>
     <t>Definition</t>
   </si>
   <si>
@@ -342,6 +318,48 @@
   </si>
   <si>
     <t>Dt</t>
+  </si>
+  <si>
+    <t>**NTD Monthly Ridership by RTPA**</t>
+  </si>
+  <si>
+    <t>**Workbook Tabs**</t>
+  </si>
+  <si>
+    <t>**Data Dictionary**</t>
+  </si>
+  <si>
+    <t>**NTD Modes**</t>
+  </si>
+  <si>
+    <t>**NTD Type of Service (TOS)**</t>
+  </si>
+  <si>
+    <t>**Column Names**</t>
+  </si>
+  <si>
+    <t>Aggregated by Agency</t>
+  </si>
+  <si>
+    <t>Aggregated by Mode</t>
+  </si>
+  <si>
+    <t>Aggregate by TOS</t>
+  </si>
+  <si>
+    <t>Provide CalSTA and RTPAs with NTD Monthly Ridership</t>
+  </si>
+  <si>
+    <t>The processed ridership data used to populate the Monthly NTD Ridership Portfolio charts and graphs for reach RTPA</t>
+  </si>
+  <si>
+    <t>The processed data, aggregated by individual transit agency, by year and month</t>
+  </si>
+  <si>
+    <t>The processed data, aggregated by NTD Mode (see data dictionary below), by year and month</t>
+  </si>
+  <si>
+    <t>The processed data, aggregated by NTD Type of Service (see data dictionary below), by year and month</t>
   </si>
 </sst>
 </file>
@@ -391,27 +409,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -436,7 +439,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -753,11 +756,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A63280-4CAE-42D6-B3D9-7BBD49D66E76}">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -768,18 +769,18 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -788,10 +789,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -812,7 +813,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -821,10 +822,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -832,334 +833,340 @@
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>22</v>
+      <c r="A10" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>5</v>
+      <c r="A13" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>6</v>
+      <c r="A15" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>20</v>
+      <c r="A32" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>99</v>
       </c>
+      <c r="B39" s="2"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>27</v>
@@ -1167,61 +1174,80 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A40:B66">
+    <sortCondition ref="A40:A66"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
